--- a/wikipedia_validation_sheets/Reflex syncope DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Reflex syncope DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{241CD26F-8CC9-044B-A608-0340DB59E673}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D4A97-5F09-F14B-9802-0313436C3FEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="7120" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="128">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -352,6 +352,63 @@
   </si>
   <si>
     <t>An electrophysiology study</t>
+  </si>
+  <si>
+    <t>stuttering</t>
+  </si>
+  <si>
+    <t>Stuttering</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>emotional, stress</t>
+  </si>
+  <si>
+    <t>Emotional stress</t>
+  </si>
+  <si>
+    <t>dysfunction</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>Understanding, NOS</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
   </si>
 </sst>
 </file>
@@ -732,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -815,6 +872,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1183,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,43 +1260,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2395,199 +2455,271 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="36" t="s">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="23" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -2605,25 +2737,233 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="39" t="s">
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="39" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
